--- a/sem2/aisd-lab/src/lab4/aisd_wykresy.xlsx
+++ b/sem2/aisd-lab/src/lab4/aisd_wykresy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29005"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\pwr-repo\sem2\aisd-lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\pwr-repo\sem2\aisd-lab\src\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663C955-90C2-4F23-99E0-DC3FA8596BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D22A49-A0CC-41EE-AA4C-7EE9F665A030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C7128112-AAFE-497F-80CF-4D7C130D65FB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>liczba porownan</t>
   </si>
@@ -91,9 +91,6 @@
   <si>
     <t xml:space="preserve">CocktailSort Shuffled Generator </t>
   </si>
-  <si>
-    <t>GOTOWY SZABLON EXCELA NIE JEST MOJEGO AUTORSTWA I TRAKTUJE GO JAKO SZABLON DO MOICH DANYCH</t>
-  </si>
 </sst>
 </file>
 
@@ -133,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +158,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,6 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -23990,8 +23981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF947CD2-472E-4572-B542-9D7DC6A8479F}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24011,15 +24002,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -24505,15 +24496,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -25000,15 +24991,15 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
@@ -25494,16 +25485,14 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -25542,15 +25531,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -26036,15 +26025,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -26531,15 +26520,15 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
@@ -27062,15 +27051,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -27556,15 +27545,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -28051,15 +28040,15 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
@@ -28581,15 +28570,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -29075,15 +29064,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
@@ -29570,15 +29559,15 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
